--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="range names" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Students Detail" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ritik</t>
+          <t>enrollment</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sem</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>phone</t>
         </is>
       </c>
     </row>

--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,76 @@
           <t>phone</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>oldenrollment</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dob</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>caste</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>subcast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>parent_contact</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>emergency_contact</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>userid</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>aadhar</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>finalsem</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>termend</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,72 +444,22 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>dob</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>oldenrollment</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>dob</t>
+          <t>caste</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>caste</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>subcast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
           <t>category</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>parent_contact</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>emergency_contact</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>userid</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>aadhar</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>finalsem</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>termend</t>
         </is>
       </c>
     </row>

--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,22 +444,72 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>oldenrollment</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>dob</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>caste</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>subcast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>category</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>parent_contact</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>emergency_contact</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>userid</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>aadhaar</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>finalsem</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>termend</t>
         </is>
       </c>
     </row>

--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,67 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>oldenrollment</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>dob</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>caste</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>subcast</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>parent_contact</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>emergency_contact</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>userid</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>aadhaar</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>finalsem</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>termend</t>
         </is>
       </c>
     </row>

--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,12 +444,27 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>dob</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>dob</t>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>parent_contact</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>emergency_contact</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>address</t>
         </is>
       </c>
     </row>

--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,27 +444,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>dob</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>parent_contact</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>emergency_contact</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>address</t>
+          <t>subcast</t>
         </is>
       </c>
     </row>

--- a/exam_management/addstudent.xlsx
+++ b/exam_management/addstudent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>subcast</t>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dob</t>
         </is>
       </c>
     </row>
